--- a/Web前端技术/汇总.xlsx
+++ b/Web前端技术/汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\24-25-2-IT-Exam-Resources\Web前端技术\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F4CEB5-5F96-4431-B811-5FBE7124A7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B780CC58-09FF-4E8F-AF2A-405EF32BFCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -727,9 +727,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>['A&lt;body&gt;&lt;/body&gt;','B','C&lt;/head&gt;&lt;body&gt;','D&lt;pre&gt;&lt;/pre&gt;']</t>
-  </si>
-  <si>
     <t>CSS的规则是由选择器和()构成的</t>
   </si>
   <si>
@@ -1271,6 +1268,10 @@
   </si>
   <si>
     <t>['A&lt;p&gt;是文本节点的子节点', 'B函数的功能是创建新的文本节点', 'C代码第2行是创建一个&lt;p&gt;元素标记', 'D代码第4行是为文档添加文本节点']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>['A&lt;body&gt;&lt;/body&gt;','B&lt;head&gt;&lt;/head&gt;','C&lt;/head&gt;&lt;body&gt;','D&lt;pre&gt;&lt;/pre&gt;']</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1648,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="D176" sqref="A1:D263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3596,7 +3597,7 @@
         <v>234</v>
       </c>
       <c r="D176" t="s">
-        <v>235</v>
+        <v>412</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
@@ -3604,13 +3605,13 @@
         <v>229</v>
       </c>
       <c r="B177" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C177" t="s">
         <v>231</v>
       </c>
       <c r="D177" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
@@ -3618,13 +3619,13 @@
         <v>229</v>
       </c>
       <c r="B178" t="s">
+        <v>237</v>
+      </c>
+      <c r="C178" t="s">
         <v>238</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>239</v>
-      </c>
-      <c r="D178" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
@@ -3632,13 +3633,13 @@
         <v>229</v>
       </c>
       <c r="B179" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C179" t="s">
         <v>234</v>
       </c>
       <c r="D179" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
@@ -3646,13 +3647,13 @@
         <v>229</v>
       </c>
       <c r="B180" t="s">
+        <v>242</v>
+      </c>
+      <c r="C180" t="s">
         <v>243</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>244</v>
-      </c>
-      <c r="D180" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
@@ -3660,13 +3661,13 @@
         <v>229</v>
       </c>
       <c r="B181" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C181" t="s">
         <v>231</v>
       </c>
       <c r="D181" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
@@ -3674,13 +3675,13 @@
         <v>229</v>
       </c>
       <c r="B182" t="s">
+        <v>247</v>
+      </c>
+      <c r="C182" t="s">
+        <v>243</v>
+      </c>
+      <c r="D182" t="s">
         <v>248</v>
-      </c>
-      <c r="C182" t="s">
-        <v>244</v>
-      </c>
-      <c r="D182" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
@@ -3688,13 +3689,13 @@
         <v>229</v>
       </c>
       <c r="B183" t="s">
+        <v>249</v>
+      </c>
+      <c r="C183" t="s">
+        <v>238</v>
+      </c>
+      <c r="D183" t="s">
         <v>250</v>
-      </c>
-      <c r="C183" t="s">
-        <v>239</v>
-      </c>
-      <c r="D183" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
@@ -3702,13 +3703,13 @@
         <v>229</v>
       </c>
       <c r="B184" t="s">
+        <v>251</v>
+      </c>
+      <c r="C184" t="s">
+        <v>243</v>
+      </c>
+      <c r="D184" t="s">
         <v>252</v>
-      </c>
-      <c r="C184" t="s">
-        <v>244</v>
-      </c>
-      <c r="D184" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
@@ -3716,13 +3717,13 @@
         <v>229</v>
       </c>
       <c r="B185" t="s">
+        <v>253</v>
+      </c>
+      <c r="C185" t="s">
+        <v>243</v>
+      </c>
+      <c r="D185" t="s">
         <v>254</v>
-      </c>
-      <c r="C185" t="s">
-        <v>244</v>
-      </c>
-      <c r="D185" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
@@ -3730,13 +3731,13 @@
         <v>229</v>
       </c>
       <c r="B186" t="s">
+        <v>255</v>
+      </c>
+      <c r="C186" t="s">
+        <v>238</v>
+      </c>
+      <c r="D186" t="s">
         <v>256</v>
-      </c>
-      <c r="C186" t="s">
-        <v>239</v>
-      </c>
-      <c r="D186" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
@@ -3744,13 +3745,13 @@
         <v>229</v>
       </c>
       <c r="B187" t="s">
+        <v>257</v>
+      </c>
+      <c r="C187" t="s">
+        <v>243</v>
+      </c>
+      <c r="D187" t="s">
         <v>258</v>
-      </c>
-      <c r="C187" t="s">
-        <v>244</v>
-      </c>
-      <c r="D187" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
@@ -3758,13 +3759,13 @@
         <v>229</v>
       </c>
       <c r="B188" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C188" t="s">
         <v>234</v>
       </c>
       <c r="D188" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
@@ -3772,13 +3773,13 @@
         <v>229</v>
       </c>
       <c r="B189" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C189" t="s">
         <v>234</v>
       </c>
       <c r="D189" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
@@ -3786,13 +3787,13 @@
         <v>229</v>
       </c>
       <c r="B190" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C190" t="s">
         <v>234</v>
       </c>
       <c r="D190" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
@@ -3800,13 +3801,13 @@
         <v>229</v>
       </c>
       <c r="B191" t="s">
+        <v>265</v>
+      </c>
+      <c r="C191" t="s">
+        <v>243</v>
+      </c>
+      <c r="D191" t="s">
         <v>266</v>
-      </c>
-      <c r="C191" t="s">
-        <v>244</v>
-      </c>
-      <c r="D191" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
@@ -3814,13 +3815,13 @@
         <v>229</v>
       </c>
       <c r="B192" t="s">
+        <v>267</v>
+      </c>
+      <c r="C192" t="s">
+        <v>238</v>
+      </c>
+      <c r="D192" t="s">
         <v>268</v>
-      </c>
-      <c r="C192" t="s">
-        <v>239</v>
-      </c>
-      <c r="D192" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
@@ -3828,13 +3829,13 @@
         <v>229</v>
       </c>
       <c r="B193" t="s">
+        <v>269</v>
+      </c>
+      <c r="C193" t="s">
+        <v>243</v>
+      </c>
+      <c r="D193" t="s">
         <v>270</v>
-      </c>
-      <c r="C193" t="s">
-        <v>244</v>
-      </c>
-      <c r="D193" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
@@ -3842,13 +3843,13 @@
         <v>229</v>
       </c>
       <c r="B194" t="s">
+        <v>271</v>
+      </c>
+      <c r="C194" t="s">
+        <v>243</v>
+      </c>
+      <c r="D194" t="s">
         <v>272</v>
-      </c>
-      <c r="C194" t="s">
-        <v>244</v>
-      </c>
-      <c r="D194" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
@@ -3856,13 +3857,13 @@
         <v>229</v>
       </c>
       <c r="B195" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C195" t="s">
         <v>234</v>
       </c>
       <c r="D195" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
@@ -3870,13 +3871,13 @@
         <v>229</v>
       </c>
       <c r="B196" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C196" t="s">
         <v>231</v>
       </c>
       <c r="D196" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
@@ -3884,13 +3885,13 @@
         <v>229</v>
       </c>
       <c r="B197" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C197" t="s">
         <v>231</v>
       </c>
       <c r="D197" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
@@ -3898,13 +3899,13 @@
         <v>229</v>
       </c>
       <c r="B198" t="s">
+        <v>279</v>
+      </c>
+      <c r="C198" t="s">
+        <v>238</v>
+      </c>
+      <c r="D198" t="s">
         <v>280</v>
-      </c>
-      <c r="C198" t="s">
-        <v>239</v>
-      </c>
-      <c r="D198" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
@@ -3912,13 +3913,13 @@
         <v>229</v>
       </c>
       <c r="B199" t="s">
+        <v>281</v>
+      </c>
+      <c r="C199" t="s">
+        <v>238</v>
+      </c>
+      <c r="D199" t="s">
         <v>282</v>
-      </c>
-      <c r="C199" t="s">
-        <v>239</v>
-      </c>
-      <c r="D199" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
@@ -3926,13 +3927,13 @@
         <v>229</v>
       </c>
       <c r="B200" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C200" t="s">
         <v>231</v>
       </c>
       <c r="D200" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3940,13 +3941,13 @@
         <v>229</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C201" t="s">
+        <v>408</v>
+      </c>
+      <c r="D201" t="s">
         <v>411</v>
-      </c>
-      <c r="C201" t="s">
-        <v>409</v>
-      </c>
-      <c r="D201" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
@@ -3954,13 +3955,13 @@
         <v>229</v>
       </c>
       <c r="B202" t="s">
+        <v>285</v>
+      </c>
+      <c r="C202" t="s">
+        <v>243</v>
+      </c>
+      <c r="D202" t="s">
         <v>286</v>
-      </c>
-      <c r="C202" t="s">
-        <v>244</v>
-      </c>
-      <c r="D202" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
@@ -3968,13 +3969,13 @@
         <v>229</v>
       </c>
       <c r="B203" t="s">
+        <v>287</v>
+      </c>
+      <c r="C203" t="s">
+        <v>238</v>
+      </c>
+      <c r="D203" t="s">
         <v>288</v>
-      </c>
-      <c r="C203" t="s">
-        <v>239</v>
-      </c>
-      <c r="D203" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
@@ -3982,13 +3983,13 @@
         <v>229</v>
       </c>
       <c r="B204" t="s">
+        <v>289</v>
+      </c>
+      <c r="C204" t="s">
+        <v>238</v>
+      </c>
+      <c r="D204" t="s">
         <v>290</v>
-      </c>
-      <c r="C204" t="s">
-        <v>239</v>
-      </c>
-      <c r="D204" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
@@ -3996,13 +3997,13 @@
         <v>229</v>
       </c>
       <c r="B205" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C205" t="s">
         <v>231</v>
       </c>
       <c r="D205" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
@@ -4010,13 +4011,13 @@
         <v>229</v>
       </c>
       <c r="B206" t="s">
+        <v>293</v>
+      </c>
+      <c r="C206" t="s">
+        <v>243</v>
+      </c>
+      <c r="D206" t="s">
         <v>294</v>
-      </c>
-      <c r="C206" t="s">
-        <v>244</v>
-      </c>
-      <c r="D206" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
@@ -4024,13 +4025,13 @@
         <v>229</v>
       </c>
       <c r="B207" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C207" t="s">
         <v>231</v>
       </c>
       <c r="D207" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
@@ -4038,13 +4039,13 @@
         <v>229</v>
       </c>
       <c r="B208" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C208" t="s">
         <v>231</v>
       </c>
       <c r="D208" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
@@ -4052,13 +4053,13 @@
         <v>229</v>
       </c>
       <c r="B209" t="s">
+        <v>299</v>
+      </c>
+      <c r="C209" t="s">
+        <v>238</v>
+      </c>
+      <c r="D209" t="s">
         <v>300</v>
-      </c>
-      <c r="C209" t="s">
-        <v>239</v>
-      </c>
-      <c r="D209" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
@@ -4066,13 +4067,13 @@
         <v>229</v>
       </c>
       <c r="B210" t="s">
+        <v>301</v>
+      </c>
+      <c r="C210" t="s">
+        <v>238</v>
+      </c>
+      <c r="D210" t="s">
         <v>302</v>
-      </c>
-      <c r="C210" t="s">
-        <v>239</v>
-      </c>
-      <c r="D210" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
@@ -4080,13 +4081,13 @@
         <v>229</v>
       </c>
       <c r="B211" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C211" t="s">
         <v>231</v>
       </c>
       <c r="D211" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
@@ -4094,13 +4095,13 @@
         <v>229</v>
       </c>
       <c r="B212" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C212" t="s">
         <v>231</v>
       </c>
       <c r="D212" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
@@ -4108,13 +4109,13 @@
         <v>229</v>
       </c>
       <c r="B213" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C213" t="s">
         <v>231</v>
       </c>
       <c r="D213" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
@@ -4122,13 +4123,13 @@
         <v>229</v>
       </c>
       <c r="B214" t="s">
+        <v>309</v>
+      </c>
+      <c r="C214" t="s">
+        <v>238</v>
+      </c>
+      <c r="D214" t="s">
         <v>310</v>
-      </c>
-      <c r="C214" t="s">
-        <v>239</v>
-      </c>
-      <c r="D214" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
@@ -4136,13 +4137,13 @@
         <v>229</v>
       </c>
       <c r="B215" t="s">
+        <v>311</v>
+      </c>
+      <c r="C215" t="s">
+        <v>238</v>
+      </c>
+      <c r="D215" t="s">
         <v>312</v>
-      </c>
-      <c r="C215" t="s">
-        <v>239</v>
-      </c>
-      <c r="D215" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
@@ -4150,13 +4151,13 @@
         <v>229</v>
       </c>
       <c r="B216" t="s">
+        <v>313</v>
+      </c>
+      <c r="C216" t="s">
+        <v>243</v>
+      </c>
+      <c r="D216" t="s">
         <v>314</v>
-      </c>
-      <c r="C216" t="s">
-        <v>244</v>
-      </c>
-      <c r="D216" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
@@ -4164,13 +4165,13 @@
         <v>229</v>
       </c>
       <c r="B217" t="s">
+        <v>315</v>
+      </c>
+      <c r="C217" t="s">
+        <v>238</v>
+      </c>
+      <c r="D217" t="s">
         <v>316</v>
-      </c>
-      <c r="C217" t="s">
-        <v>239</v>
-      </c>
-      <c r="D217" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
@@ -4178,13 +4179,13 @@
         <v>229</v>
       </c>
       <c r="B218" t="s">
+        <v>317</v>
+      </c>
+      <c r="C218" t="s">
+        <v>243</v>
+      </c>
+      <c r="D218" t="s">
         <v>318</v>
-      </c>
-      <c r="C218" t="s">
-        <v>244</v>
-      </c>
-      <c r="D218" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
@@ -4192,13 +4193,13 @@
         <v>229</v>
       </c>
       <c r="B219" t="s">
+        <v>319</v>
+      </c>
+      <c r="C219" t="s">
+        <v>238</v>
+      </c>
+      <c r="D219" t="s">
         <v>320</v>
-      </c>
-      <c r="C219" t="s">
-        <v>239</v>
-      </c>
-      <c r="D219" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
@@ -4206,13 +4207,13 @@
         <v>229</v>
       </c>
       <c r="B220" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C220" t="s">
         <v>231</v>
       </c>
       <c r="D220" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
@@ -4220,13 +4221,13 @@
         <v>229</v>
       </c>
       <c r="B221" t="s">
+        <v>323</v>
+      </c>
+      <c r="C221" t="s">
+        <v>238</v>
+      </c>
+      <c r="D221" t="s">
         <v>324</v>
-      </c>
-      <c r="C221" t="s">
-        <v>239</v>
-      </c>
-      <c r="D221" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
@@ -4234,13 +4235,13 @@
         <v>229</v>
       </c>
       <c r="B222" t="s">
+        <v>325</v>
+      </c>
+      <c r="C222" t="s">
+        <v>243</v>
+      </c>
+      <c r="D222" t="s">
         <v>326</v>
-      </c>
-      <c r="C222" t="s">
-        <v>244</v>
-      </c>
-      <c r="D222" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
@@ -4248,13 +4249,13 @@
         <v>229</v>
       </c>
       <c r="B223" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C223" t="s">
         <v>234</v>
       </c>
       <c r="D223" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
@@ -4262,13 +4263,13 @@
         <v>229</v>
       </c>
       <c r="B224" t="s">
+        <v>329</v>
+      </c>
+      <c r="C224" t="s">
+        <v>243</v>
+      </c>
+      <c r="D224" t="s">
         <v>330</v>
-      </c>
-      <c r="C224" t="s">
-        <v>244</v>
-      </c>
-      <c r="D224" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
@@ -4276,13 +4277,13 @@
         <v>229</v>
       </c>
       <c r="B225" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C225" t="s">
         <v>231</v>
       </c>
       <c r="D225" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
@@ -4290,13 +4291,13 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
+        <v>333</v>
+      </c>
+      <c r="C226" t="s">
+        <v>243</v>
+      </c>
+      <c r="D226" t="s">
         <v>334</v>
-      </c>
-      <c r="C226" t="s">
-        <v>244</v>
-      </c>
-      <c r="D226" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
@@ -4304,13 +4305,13 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
+        <v>335</v>
+      </c>
+      <c r="C227" t="s">
+        <v>238</v>
+      </c>
+      <c r="D227" t="s">
         <v>336</v>
-      </c>
-      <c r="C227" t="s">
-        <v>239</v>
-      </c>
-      <c r="D227" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4318,13 +4319,13 @@
         <v>229</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C228" t="s">
         <v>408</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>409</v>
-      </c>
-      <c r="D228" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
@@ -4332,13 +4333,13 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C229" t="s">
         <v>231</v>
       </c>
       <c r="D229" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
@@ -4346,13 +4347,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
+        <v>339</v>
+      </c>
+      <c r="C230" t="s">
+        <v>243</v>
+      </c>
+      <c r="D230" t="s">
         <v>340</v>
-      </c>
-      <c r="C230" t="s">
-        <v>244</v>
-      </c>
-      <c r="D230" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
@@ -4360,13 +4361,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C231" t="s">
         <v>234</v>
       </c>
       <c r="D231" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
@@ -4374,13 +4375,13 @@
         <v>229</v>
       </c>
       <c r="B232" t="s">
+        <v>343</v>
+      </c>
+      <c r="C232" t="s">
+        <v>243</v>
+      </c>
+      <c r="D232" t="s">
         <v>344</v>
-      </c>
-      <c r="C232" t="s">
-        <v>244</v>
-      </c>
-      <c r="D232" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
@@ -4388,13 +4389,13 @@
         <v>229</v>
       </c>
       <c r="B233" t="s">
+        <v>345</v>
+      </c>
+      <c r="C233" t="s">
+        <v>243</v>
+      </c>
+      <c r="D233" t="s">
         <v>346</v>
-      </c>
-      <c r="C233" t="s">
-        <v>244</v>
-      </c>
-      <c r="D233" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
@@ -4402,13 +4403,13 @@
         <v>229</v>
       </c>
       <c r="B234" t="s">
+        <v>347</v>
+      </c>
+      <c r="C234" t="s">
+        <v>238</v>
+      </c>
+      <c r="D234" t="s">
         <v>348</v>
-      </c>
-      <c r="C234" t="s">
-        <v>239</v>
-      </c>
-      <c r="D234" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
@@ -4416,13 +4417,13 @@
         <v>229</v>
       </c>
       <c r="B235" t="s">
+        <v>349</v>
+      </c>
+      <c r="C235" t="s">
+        <v>243</v>
+      </c>
+      <c r="D235" t="s">
         <v>350</v>
-      </c>
-      <c r="C235" t="s">
-        <v>244</v>
-      </c>
-      <c r="D235" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
@@ -4430,13 +4431,13 @@
         <v>229</v>
       </c>
       <c r="B236" t="s">
+        <v>351</v>
+      </c>
+      <c r="C236" t="s">
+        <v>243</v>
+      </c>
+      <c r="D236" t="s">
         <v>352</v>
-      </c>
-      <c r="C236" t="s">
-        <v>244</v>
-      </c>
-      <c r="D236" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
@@ -4444,13 +4445,13 @@
         <v>229</v>
       </c>
       <c r="B237" t="s">
+        <v>353</v>
+      </c>
+      <c r="C237" t="s">
+        <v>238</v>
+      </c>
+      <c r="D237" t="s">
         <v>354</v>
-      </c>
-      <c r="C237" t="s">
-        <v>239</v>
-      </c>
-      <c r="D237" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
@@ -4458,13 +4459,13 @@
         <v>229</v>
       </c>
       <c r="B238" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C238" t="s">
         <v>231</v>
       </c>
       <c r="D238" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
@@ -4472,13 +4473,13 @@
         <v>229</v>
       </c>
       <c r="B239" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C239" t="s">
         <v>231</v>
       </c>
       <c r="D239" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
@@ -4486,13 +4487,13 @@
         <v>229</v>
       </c>
       <c r="B240" t="s">
+        <v>359</v>
+      </c>
+      <c r="C240" t="s">
+        <v>238</v>
+      </c>
+      <c r="D240" t="s">
         <v>360</v>
-      </c>
-      <c r="C240" t="s">
-        <v>239</v>
-      </c>
-      <c r="D240" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
@@ -4500,13 +4501,13 @@
         <v>229</v>
       </c>
       <c r="B241" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C241" t="s">
         <v>231</v>
       </c>
       <c r="D241" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
@@ -4514,13 +4515,13 @@
         <v>229</v>
       </c>
       <c r="B242" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C242" t="s">
         <v>231</v>
       </c>
       <c r="D242" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
@@ -4528,13 +4529,13 @@
         <v>229</v>
       </c>
       <c r="B243" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C243" t="s">
         <v>231</v>
       </c>
       <c r="D243" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
@@ -4542,13 +4543,13 @@
         <v>229</v>
       </c>
       <c r="B244" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C244" t="s">
         <v>234</v>
       </c>
       <c r="D244" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
@@ -4556,13 +4557,13 @@
         <v>229</v>
       </c>
       <c r="B245" t="s">
+        <v>369</v>
+      </c>
+      <c r="C245" t="s">
+        <v>243</v>
+      </c>
+      <c r="D245" t="s">
         <v>370</v>
-      </c>
-      <c r="C245" t="s">
-        <v>244</v>
-      </c>
-      <c r="D245" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
@@ -4570,13 +4571,13 @@
         <v>229</v>
       </c>
       <c r="B246" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C246" t="s">
         <v>234</v>
       </c>
       <c r="D246" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
@@ -4584,13 +4585,13 @@
         <v>229</v>
       </c>
       <c r="B247" t="s">
+        <v>373</v>
+      </c>
+      <c r="C247" t="s">
+        <v>243</v>
+      </c>
+      <c r="D247" t="s">
         <v>374</v>
-      </c>
-      <c r="C247" t="s">
-        <v>244</v>
-      </c>
-      <c r="D247" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
@@ -4598,13 +4599,13 @@
         <v>229</v>
       </c>
       <c r="B248" t="s">
+        <v>375</v>
+      </c>
+      <c r="C248" t="s">
+        <v>243</v>
+      </c>
+      <c r="D248" t="s">
         <v>376</v>
-      </c>
-      <c r="C248" t="s">
-        <v>244</v>
-      </c>
-      <c r="D248" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
@@ -4612,13 +4613,13 @@
         <v>229</v>
       </c>
       <c r="B249" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C249" t="s">
         <v>231</v>
       </c>
       <c r="D249" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
@@ -4626,13 +4627,13 @@
         <v>229</v>
       </c>
       <c r="B250" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C250" t="s">
         <v>234</v>
       </c>
       <c r="D250" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
@@ -4640,13 +4641,13 @@
         <v>229</v>
       </c>
       <c r="B251" t="s">
+        <v>381</v>
+      </c>
+      <c r="C251" t="s">
+        <v>238</v>
+      </c>
+      <c r="D251" t="s">
         <v>382</v>
-      </c>
-      <c r="C251" t="s">
-        <v>239</v>
-      </c>
-      <c r="D251" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
@@ -4654,13 +4655,13 @@
         <v>229</v>
       </c>
       <c r="B252" t="s">
+        <v>383</v>
+      </c>
+      <c r="C252" t="s">
+        <v>243</v>
+      </c>
+      <c r="D252" t="s">
         <v>384</v>
-      </c>
-      <c r="C252" t="s">
-        <v>244</v>
-      </c>
-      <c r="D252" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
@@ -4668,13 +4669,13 @@
         <v>229</v>
       </c>
       <c r="B253" t="s">
+        <v>385</v>
+      </c>
+      <c r="C253" t="s">
+        <v>243</v>
+      </c>
+      <c r="D253" t="s">
         <v>386</v>
-      </c>
-      <c r="C253" t="s">
-        <v>244</v>
-      </c>
-      <c r="D253" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
@@ -4682,13 +4683,13 @@
         <v>229</v>
       </c>
       <c r="B254" t="s">
+        <v>387</v>
+      </c>
+      <c r="C254" t="s">
+        <v>238</v>
+      </c>
+      <c r="D254" t="s">
         <v>388</v>
-      </c>
-      <c r="C254" t="s">
-        <v>239</v>
-      </c>
-      <c r="D254" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
@@ -4696,13 +4697,13 @@
         <v>229</v>
       </c>
       <c r="B255" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C255" t="s">
         <v>234</v>
       </c>
       <c r="D255" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
@@ -4710,13 +4711,13 @@
         <v>229</v>
       </c>
       <c r="B256" t="s">
+        <v>391</v>
+      </c>
+      <c r="C256" t="s">
+        <v>243</v>
+      </c>
+      <c r="D256" t="s">
         <v>392</v>
-      </c>
-      <c r="C256" t="s">
-        <v>244</v>
-      </c>
-      <c r="D256" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
@@ -4724,13 +4725,13 @@
         <v>229</v>
       </c>
       <c r="B257" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C257" t="s">
         <v>234</v>
       </c>
       <c r="D257" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
@@ -4738,13 +4739,13 @@
         <v>229</v>
       </c>
       <c r="B258" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C258" t="s">
         <v>234</v>
       </c>
       <c r="D258" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
@@ -4752,13 +4753,13 @@
         <v>229</v>
       </c>
       <c r="B259" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C259" t="s">
         <v>234</v>
       </c>
       <c r="D259" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
@@ -4766,13 +4767,13 @@
         <v>229</v>
       </c>
       <c r="B260" t="s">
+        <v>399</v>
+      </c>
+      <c r="C260" t="s">
+        <v>243</v>
+      </c>
+      <c r="D260" t="s">
         <v>400</v>
-      </c>
-      <c r="C260" t="s">
-        <v>244</v>
-      </c>
-      <c r="D260" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
@@ -4780,13 +4781,13 @@
         <v>229</v>
       </c>
       <c r="B261" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C261" t="s">
         <v>234</v>
       </c>
       <c r="D261" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
@@ -4794,13 +4795,13 @@
         <v>229</v>
       </c>
       <c r="B262" t="s">
+        <v>403</v>
+      </c>
+      <c r="C262" t="s">
+        <v>238</v>
+      </c>
+      <c r="D262" t="s">
         <v>404</v>
-      </c>
-      <c r="C262" t="s">
-        <v>239</v>
-      </c>
-      <c r="D262" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
@@ -4808,13 +4809,13 @@
         <v>229</v>
       </c>
       <c r="B263" t="s">
+        <v>405</v>
+      </c>
+      <c r="C263" t="s">
+        <v>243</v>
+      </c>
+      <c r="D263" t="s">
         <v>406</v>
-      </c>
-      <c r="C263" t="s">
-        <v>244</v>
-      </c>
-      <c r="D263" t="s">
-        <v>407</v>
       </c>
     </row>
   </sheetData>
